--- a/Lastenheft/AbschlussGant.xlsx
+++ b/Lastenheft/AbschlussGant.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">PROJEKTNAME </t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Projektplanung</t>
-  </si>
-  <si>
-    <t>Jonas Becker</t>
-  </si>
-  <si>
-    <t>Anforderungen</t>
   </si>
   <si>
     <t>Systemdesign</t>
@@ -104,20 +98,32 @@
   <si>
     <t>Abnahmetests</t>
   </si>
+  <si>
+    <t>Puffer</t>
+  </si>
+  <si>
+    <t>Prüfungen</t>
+  </si>
+  <si>
+    <t>Pre - Deadline (Vorabgabe)</t>
+  </si>
+  <si>
+    <t>Deadline (Finale Abgabe)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="177" formatCode="d"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -184,14 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +214,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,30 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
@@ -311,6 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -327,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,19 +389,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,19 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,109 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +655,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -715,24 +690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,49 +731,49 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,104 +788,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,14 +999,8 @@
     <xf numFmtId="58" fontId="0" fillId="10" borderId="0" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="19" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,16 +1065,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
@@ -1137,6 +1078,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1148,7 +1099,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$4" horiz="1" max="52" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$4" horiz="1" max="52" val="15"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,11 +1430,11 @@
   </sheetPr>
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="17.7083333333333" customWidth="1"/>
@@ -1517,208 +1468,208 @@
         <v>46031</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:41">
+    <row r="4" ht="15" spans="1:41">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6">
         <f>G5</f>
-        <v>46027</v>
+        <v>46132</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="43"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6">
         <f t="shared" ref="N4" si="0">N5</f>
-        <v>46034</v>
+        <v>46139</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="43"/>
+      <c r="T4" s="41"/>
       <c r="U4" s="6">
         <f t="shared" ref="U4" si="1">U5</f>
-        <v>46041</v>
+        <v>46146</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="43"/>
+      <c r="AA4" s="41"/>
       <c r="AB4" s="6">
         <f t="shared" ref="AB4" si="2">AB5</f>
-        <v>46048</v>
+        <v>46153</v>
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="43"/>
+      <c r="AH4" s="41"/>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4" si="3">AI5</f>
-        <v>46055</v>
+        <v>46160</v>
       </c>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="43"/>
+      <c r="AO4" s="41"/>
     </row>
     <row r="5" spans="7:41">
       <c r="G5" s="8">
         <f>$C$3-WEEKDAY(Startdatum,3)+Anzeigewoche*7</f>
-        <v>46027</v>
+        <v>46132</v>
       </c>
       <c r="H5" s="9">
         <f>G5+1</f>
-        <v>46028</v>
+        <v>46133</v>
       </c>
       <c r="I5" s="9">
         <f>H5+1</f>
-        <v>46029</v>
+        <v>46134</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:AH5" si="4">I5+1</f>
-        <v>46030</v>
+        <v>46135</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="4"/>
-        <v>46031</v>
+        <v>46136</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="4"/>
-        <v>46032</v>
-      </c>
-      <c r="M5" s="44">
+        <v>46137</v>
+      </c>
+      <c r="M5" s="42">
         <f t="shared" si="4"/>
-        <v>46033</v>
+        <v>46138</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="4"/>
-        <v>46034</v>
+        <v>46139</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="4"/>
-        <v>46035</v>
+        <v>46140</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="4"/>
-        <v>46036</v>
+        <v>46141</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="4"/>
-        <v>46037</v>
+        <v>46142</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="4"/>
-        <v>46038</v>
+        <v>46143</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="4"/>
-        <v>46039</v>
-      </c>
-      <c r="T5" s="44">
+        <v>46144</v>
+      </c>
+      <c r="T5" s="42">
         <f t="shared" si="4"/>
-        <v>46040</v>
+        <v>46145</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="4"/>
-        <v>46041</v>
+        <v>46146</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="4"/>
-        <v>46042</v>
+        <v>46147</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="4"/>
-        <v>46043</v>
+        <v>46148</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="4"/>
-        <v>46044</v>
+        <v>46149</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="4"/>
-        <v>46045</v>
+        <v>46150</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="4"/>
-        <v>46046</v>
-      </c>
-      <c r="AA5" s="44">
+        <v>46151</v>
+      </c>
+      <c r="AA5" s="42">
         <f t="shared" si="4"/>
-        <v>46047</v>
+        <v>46152</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" si="4"/>
-        <v>46048</v>
+        <v>46153</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="4"/>
-        <v>46049</v>
+        <v>46154</v>
       </c>
       <c r="AD5" s="9">
         <f t="shared" si="4"/>
-        <v>46050</v>
+        <v>46155</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="4"/>
-        <v>46051</v>
+        <v>46156</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="4"/>
-        <v>46052</v>
+        <v>46157</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="4"/>
-        <v>46053</v>
-      </c>
-      <c r="AH5" s="44">
+        <v>46158</v>
+      </c>
+      <c r="AH5" s="42">
         <f t="shared" si="4"/>
-        <v>46054</v>
+        <v>46159</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ref="AI5:AO5" si="5">AH5+1</f>
-        <v>46055</v>
+        <v>46160</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" si="5"/>
-        <v>46056</v>
+        <v>46161</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" si="5"/>
-        <v>46057</v>
+        <v>46162</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="5"/>
-        <v>46058</v>
+        <v>46163</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="5"/>
-        <v>46059</v>
+        <v>46164</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="5"/>
-        <v>46060</v>
-      </c>
-      <c r="AO5" s="44">
+        <v>46165</v>
+      </c>
+      <c r="AO5" s="42">
         <f t="shared" si="5"/>
-        <v>46061</v>
+        <v>46166</v>
       </c>
     </row>
-    <row r="6" ht="24" spans="1:41">
+    <row r="6" ht="25.5" spans="1:41">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1926,19 +1877,17 @@
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="19">
         <f>C3</f>
         <v>46031</v>
       </c>
       <c r="E9" s="19">
-        <f>D9+1</f>
-        <v>46032</v>
+        <f>D9</f>
+        <v>46031</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -1979,21 +1928,19 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:41">
       <c r="A10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="19">
         <f>E9</f>
-        <v>46032</v>
+        <v>46031</v>
       </c>
       <c r="E10" s="19">
-        <f>D10+3</f>
-        <v>46035</v>
+        <f>D10+7</f>
+        <v>46038</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -2034,21 +1981,17 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:41">
       <c r="A11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="19">
-        <f>E10</f>
-        <v>46035</v>
+        <v>46032</v>
       </c>
       <c r="E11" s="19">
-        <f>D11+3</f>
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2089,21 +2032,17 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:41">
       <c r="A12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="18">
         <v>0</v>
       </c>
       <c r="D12" s="19">
-        <f>E11</f>
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="E12" s="19">
-        <f>D12+3</f>
-        <v>46041</v>
+        <v>46047</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2143,23 +2082,13 @@
       <c r="AO12" s="16"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:41">
-      <c r="A13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <f>D10+1</f>
-        <v>46033</v>
-      </c>
-      <c r="E13" s="19">
-        <f>D13+3</f>
-        <v>46036</v>
-      </c>
+      <c r="A13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -2198,13 +2127,17 @@
       <c r="AO13" s="16"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:41">
-      <c r="A14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26">
+        <v>46048</v>
+      </c>
+      <c r="E14" s="26">
+        <v>46063</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -2244,19 +2177,15 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:41">
       <c r="A15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26">
-        <f>E12</f>
-        <v>46041</v>
+        <v>46064</v>
       </c>
       <c r="E15" s="26">
-        <f>D15+3</f>
-        <v>46044</v>
+        <v>46073</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -2297,19 +2226,15 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:41">
       <c r="A16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26">
-        <f>E15</f>
-        <v>46044</v>
+        <v>46074</v>
       </c>
       <c r="E16" s="26">
-        <f>D16+3</f>
-        <v>46047</v>
+        <v>46096</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2350,19 +2275,15 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:41">
       <c r="A17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26">
-        <f>E16</f>
-        <v>46047</v>
+        <v>46097</v>
       </c>
       <c r="E17" s="26">
-        <f>D17+3</f>
-        <v>46050</v>
+        <v>46106</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -2403,19 +2324,15 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:41">
       <c r="A18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26">
-        <f>E15+1</f>
-        <v>46045</v>
+        <v>46107</v>
       </c>
       <c r="E18" s="26">
-        <f>D18+3</f>
-        <v>46048</v>
+        <v>46117</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2455,21 +2372,13 @@
       <c r="AO18" s="16"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:41">
-      <c r="A19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26">
-        <f>E18</f>
-        <v>46048</v>
-      </c>
-      <c r="E19" s="26">
-        <f>D19+3</f>
-        <v>46051</v>
-      </c>
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -2508,13 +2417,17 @@
       <c r="AO19" s="16"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:41">
-      <c r="A20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31">
+        <v>46118</v>
+      </c>
+      <c r="E20" s="31">
+        <v>46124</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -2554,19 +2467,15 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:41">
       <c r="A21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31">
-        <f>E19</f>
-        <v>46051</v>
+        <v>46125</v>
       </c>
       <c r="E21" s="31">
-        <f>D21+3</f>
-        <v>46054</v>
+        <v>46129</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2606,74 +2515,62 @@
       <c r="AO21" s="16"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:41">
-      <c r="A22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31">
-        <f>E21</f>
-        <v>46054</v>
-      </c>
-      <c r="E22" s="31">
-        <f>D22+3</f>
-        <v>46057</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
-      <c r="AO22" s="16"/>
+      <c r="A22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34">
+        <v>46143</v>
+      </c>
+      <c r="E22" s="34">
+        <v>46150</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:41">
       <c r="A23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>12</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B23" s="32"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="34">
-        <f>E22</f>
-        <v>46057</v>
-      </c>
-      <c r="E23" s="34">
-        <f>D23+3</f>
-        <v>46060</v>
-      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
@@ -2712,180 +2609,152 @@
       <c r="AO23" s="35"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:42">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="41"/>
+      <c r="A24" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34">
+        <v>46130</v>
+      </c>
+      <c r="E24" s="34">
+        <f>D24+12</f>
+        <v>46142</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="39"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:42">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="41"/>
+      <c r="A25" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34">
+        <v>46161</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="39"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:42">
-      <c r="A26" s="40"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="41"/>
+      <c r="A26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="39"/>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="1:42">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="41"/>
+    <row r="27" ht="24" customHeight="1" spans="42:42">
+      <c r="AP27" s="39"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="1:42">
       <c r="A28" s="36"/>
@@ -2893,43 +2762,43 @@
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="41"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="39"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="1:42">
       <c r="A29" s="36"/>
@@ -2937,43 +2806,43 @@
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="41"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="39"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:42">
       <c r="A30" s="36"/>
@@ -2981,43 +2850,43 @@
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="41"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="39"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:42">
       <c r="A31" s="36"/>
@@ -3025,273 +2894,273 @@
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="41"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="39"/>
     </row>
     <row r="32" spans="1:42">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
     </row>
     <row r="33" spans="1:42">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
     </row>
     <row r="34" spans="1:42">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
     </row>
     <row r="35" spans="1:42">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
     </row>
     <row r="36" spans="1:42">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
     </row>
     <row r="37" spans="40:42">
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
     </row>
     <row r="38" spans="40:42">
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="45"/>
-      <c r="AP38" s="45"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3301,7 +3170,57 @@
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="AI4:AO4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:C13">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0438bbe5-8f5f-4623-9a5a-b000d0f7c6e3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:AO23">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>G$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4dad7139-4e37-487c-ac7b-aa978ff63261}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:AO24">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>G$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3310,13 +3229,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78cb4e87-342c-4380-8b6d-ded3213c2321}</x14:id>
+          <x14:id>{7723a478-118f-4ab5-9d1f-ae03777b0563}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C19">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="G25:AN25">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>G$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3324,13 +3254,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f537c16a-4d53-4657-ac92-382f8d984951}</x14:id>
+          <x14:id>{aeae4676-a800-479c-a3d7-665f092c4ccf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C25">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="G26:AN26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>G$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(task_end&gt;=AO$5,task_start&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>AO$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3338,13 +3290,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{111d79ee-1953-4032-9b89-7d4ae7f92045}</x14:id>
+          <x14:id>{c805b5c0-a05e-4625-b71a-9cb42bb693b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C31">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="C14:C18">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3352,30 +3304,55 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{122ef4da-0cd3-4fdb-ba2d-dc9e88159123}</x14:id>
+          <x14:id>{df463595-879f-49fc-be3e-3835be4121a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:AO31">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="C20:C22">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14d92e1e-b774-47ab-8784-337d7bc8ed5a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C31">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3c510394-2428-4054-9ae7-c869b030dacf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:AO22 G28:AO31 AO25">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>G$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AO31">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="G7:AO22 G28:AO31 AO25">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>AND(task_end&gt;=G$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="D18" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3410,7 +3387,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78cb4e87-342c-4380-8b6d-ded3213c2321}">
+          <x14:cfRule type="dataBar" id="{0438bbe5-8f5f-4623-9a5a-b000d0f7c6e3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3424,10 +3401,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C9:C13</xm:sqref>
+          <xm:sqref>C23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f537c16a-4d53-4657-ac92-382f8d984951}">
+          <x14:cfRule type="dataBar" id="{4dad7139-4e37-487c-ac7b-aa978ff63261}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3441,10 +3418,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C15:C19</xm:sqref>
+          <xm:sqref>C24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{111d79ee-1953-4032-9b89-7d4ae7f92045}">
+          <x14:cfRule type="dataBar" id="{7723a478-118f-4ab5-9d1f-ae03777b0563}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3458,10 +3435,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C21:C25</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{122ef4da-0cd3-4fdb-ba2d-dc9e88159123}">
+          <x14:cfRule type="dataBar" id="{aeae4676-a800-479c-a3d7-665f092c4ccf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3475,7 +3452,75 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C27:C31</xm:sqref>
+          <xm:sqref>C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c805b5c0-a05e-4625-b71a-9cb42bb693b3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C9:C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{df463595-879f-49fc-be3e-3835be4121a6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C14:C18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14d92e1e-b774-47ab-8784-337d7bc8ed5a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C20:C22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3c510394-2428-4054-9ae7-c869b030dacf}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C28:C31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Lastenheft/AbschlussGant.xlsx
+++ b/Lastenheft/AbschlussGant.xlsx
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3179,7 +3179,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0438bbe5-8f5f-4623-9a5a-b000d0f7c6e3}</x14:id>
+          <x14:id>{9dcbe8ea-2572-4cf0-a249-c12c7f29d983}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3204,7 +3204,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4dad7139-4e37-487c-ac7b-aa978ff63261}</x14:id>
+          <x14:id>{f5588779-da6a-4068-96b3-1084a0c9c02a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3229,7 +3229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7723a478-118f-4ab5-9d1f-ae03777b0563}</x14:id>
+          <x14:id>{52885d36-ebc9-43a8-9a6d-36e4fd7c46ba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3254,7 +3254,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aeae4676-a800-479c-a3d7-665f092c4ccf}</x14:id>
+          <x14:id>{6dfc9cdf-8aa9-4da5-aaca-c40d00ba19b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3290,7 +3290,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c805b5c0-a05e-4625-b71a-9cb42bb693b3}</x14:id>
+          <x14:id>{c5824a3a-de7b-4124-ac1b-f0856a6bf5c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3304,7 +3304,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{df463595-879f-49fc-be3e-3835be4121a6}</x14:id>
+          <x14:id>{82e12de9-aca6-4fd9-8031-23368db53258}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3318,7 +3318,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14d92e1e-b774-47ab-8784-337d7bc8ed5a}</x14:id>
+          <x14:id>{67115047-f6cd-4582-82b9-262593fce81b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3332,7 +3332,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c510394-2428-4054-9ae7-c869b030dacf}</x14:id>
+          <x14:id>{67ebfcc2-0ad4-4435-8e4b-4048265baafd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3387,7 +3387,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0438bbe5-8f5f-4623-9a5a-b000d0f7c6e3}">
+          <x14:cfRule type="dataBar" id="{9dcbe8ea-2572-4cf0-a249-c12c7f29d983}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3404,7 +3404,7 @@
           <xm:sqref>C23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4dad7139-4e37-487c-ac7b-aa978ff63261}">
+          <x14:cfRule type="dataBar" id="{f5588779-da6a-4068-96b3-1084a0c9c02a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3421,7 +3421,7 @@
           <xm:sqref>C24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7723a478-118f-4ab5-9d1f-ae03777b0563}">
+          <x14:cfRule type="dataBar" id="{52885d36-ebc9-43a8-9a6d-36e4fd7c46ba}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3438,7 +3438,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aeae4676-a800-479c-a3d7-665f092c4ccf}">
+          <x14:cfRule type="dataBar" id="{6dfc9cdf-8aa9-4da5-aaca-c40d00ba19b2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3455,7 +3455,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c805b5c0-a05e-4625-b71a-9cb42bb693b3}">
+          <x14:cfRule type="dataBar" id="{c5824a3a-de7b-4124-ac1b-f0856a6bf5c5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3472,7 +3472,7 @@
           <xm:sqref>C9:C12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{df463595-879f-49fc-be3e-3835be4121a6}">
+          <x14:cfRule type="dataBar" id="{82e12de9-aca6-4fd9-8031-23368db53258}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3489,7 +3489,7 @@
           <xm:sqref>C14:C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{14d92e1e-b774-47ab-8784-337d7bc8ed5a}">
+          <x14:cfRule type="dataBar" id="{67115047-f6cd-4582-82b9-262593fce81b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3506,7 +3506,7 @@
           <xm:sqref>C20:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c510394-2428-4054-9ae7-c869b030dacf}">
+          <x14:cfRule type="dataBar" id="{67ebfcc2-0ad4-4435-8e4b-4048265baafd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
